--- a/site/ValueSet-obds-op-komplikation-vs.xlsx
+++ b/site/ValueSet-obds-op-komplikation-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T07:55:24+00:00</t>
+    <t>2024-02-29T10:08:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/ValueSet-obds-op-komplikation-vs.xlsx
+++ b/site/ValueSet-obds-op-komplikation-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T10:08:17+00:00</t>
+    <t>2024-02-29T10:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/ValueSet-obds-op-komplikation-vs.xlsx
+++ b/site/ValueSet-obds-op-komplikation-vs.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://krebsregister-rlp.de/fhir/tumorboard/ValueSet/obds-op-komplikation-vs</t>
+    <t>http://idg-rlp.de/fhir/tumorkonferenzen/ValueSet/obds-op-komplikation-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T10:35:30+00:00</t>
+    <t>2024-04-07T13:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -103,7 +103,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://krebsregister-rlp.de/fhir/tumorboard/CodeSystem/obds-op-komplikation-cs</t>
+    <t>http://idg-rlp.de/fhir/tumorkonferenzen/CodeSystem/obds-op-komplikation-cs</t>
   </si>
   <si>
     <t>http://fhir.de/CodeSystem/bfarm/icd-10-gm</t>
